--- a/workspace-ins/docs/URL 정의서.xlsx
+++ b/workspace-ins/docs/URL 정의서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\frontend-dev\frontend-skeleton\workspace-ins\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466618E8-CB78-4F9A-95D8-EB0D19C616D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8498986C-13BE-42D2-91C2-CDDF442E91CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32100" yWindow="645" windowWidth="21105" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47550" yWindow="150" windowWidth="10140" windowHeight="14010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,12 +191,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="17">
@@ -443,23 +449,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
@@ -468,6 +467,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -751,7 +757,7 @@
   <dimension ref="C3:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -766,21 +772,21 @@
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="10" t="s">
@@ -797,8 +803,8 @@
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C6" s="16"/>
-      <c r="D6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
@@ -810,8 +816,8 @@
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C7" s="16"/>
-      <c r="D7" s="12" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -825,8 +831,8 @@
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C8" s="16"/>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -840,8 +846,8 @@
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C9" s="16"/>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -855,8 +861,8 @@
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C10" s="16"/>
-      <c r="D10" s="11" t="s">
+      <c r="C10" s="11"/>
+      <c r="D10" s="9" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -870,8 +876,8 @@
       </c>
     </row>
     <row r="11" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C11" s="16"/>
-      <c r="D11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="1" t="s">
         <v>17</v>
       </c>
@@ -883,10 +889,10 @@
       </c>
     </row>
     <row r="12" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -900,8 +906,8 @@
       </c>
     </row>
     <row r="13" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C13" s="16"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
@@ -913,8 +919,8 @@
       </c>
     </row>
     <row r="14" spans="3:7" x14ac:dyDescent="0.4">
-      <c r="C14" s="16"/>
-      <c r="D14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="9"/>
       <c r="E14" s="1" t="s">
         <v>20</v>
       </c>
@@ -926,8 +932,8 @@
       </c>
     </row>
     <row r="15" spans="3:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="17"/>
-      <c r="D15" s="13" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="3" t="s">
